--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P06_trail1 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P06_trail1 Features.xlsx
@@ -4212,7 +4212,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.506075433566574</v>
+        <v>1.464577377463658</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.291562163216065</v>
@@ -4301,7 +4301,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.502631156238932</v>
+        <v>1.452279616681516</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.995086172102429</v>
@@ -4390,7 +4390,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.51623936340582</v>
+        <v>1.473176518637086</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.198498483093444</v>
@@ -4479,7 +4479,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.544445252437653</v>
+        <v>1.496315162525482</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.510228366324974</v>
@@ -4568,7 +4568,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.508050718340427</v>
+        <v>1.462635471340765</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.51553643030209</v>
@@ -4657,7 +4657,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.502405096248745</v>
+        <v>1.464350507039272</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.424790638660994</v>
@@ -4746,7 +4746,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.49523541057413</v>
+        <v>1.45691344326463</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.527237104691875</v>
@@ -4835,7 +4835,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.499426422345838</v>
+        <v>1.468323213441812</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.589013968763307</v>
@@ -4924,7 +4924,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.506248846122109</v>
+        <v>1.469882817591267</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.553214039615353</v>
@@ -5013,7 +5013,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.506719560599734</v>
+        <v>1.463607749699052</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.421151778486985</v>
@@ -5102,7 +5102,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.48635953294614</v>
+        <v>1.447534958189009</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.449489872816346</v>
@@ -5191,7 +5191,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.47333913514836</v>
+        <v>1.430761232118135</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.43951826672293</v>
@@ -5280,7 +5280,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.467428013423567</v>
+        <v>1.431375401106413</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.160258210697078</v>
@@ -5369,7 +5369,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.446809955608245</v>
+        <v>1.413252252250257</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.488883942441801</v>
@@ -5458,7 +5458,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.443446737530022</v>
+        <v>1.410292559786672</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.365322548065161</v>
@@ -5547,7 +5547,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.418318952515417</v>
+        <v>1.394524763542306</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.46107960444202</v>
@@ -5636,7 +5636,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.437489827806573</v>
+        <v>1.414502370720982</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.499520804245465</v>
@@ -5725,7 +5725,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.419181622411169</v>
+        <v>1.398879061153494</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.34337682370512</v>
@@ -5814,7 +5814,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.42257424353952</v>
+        <v>1.401072063668761</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.406515278166649</v>
@@ -5903,7 +5903,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.429593943855595</v>
+        <v>1.412159761200024</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.156776688135553</v>
@@ -5992,7 +5992,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.424480803296881</v>
+        <v>1.406779747767053</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.413417021859581</v>
@@ -6081,7 +6081,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.415235560219733</v>
+        <v>1.396696849183536</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.441155963408284</v>
@@ -6170,7 +6170,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.40085528638534</v>
+        <v>1.389570629938079</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.315450580413831</v>
@@ -6259,7 +6259,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.401363574438368</v>
+        <v>1.393850484870725</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.367605390337998</v>
@@ -6348,7 +6348,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.374451303942446</v>
+        <v>1.371015214627705</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.390582686269626</v>
@@ -6437,7 +6437,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.390668889036336</v>
+        <v>1.389214560681458</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.319307919056595</v>
@@ -6526,7 +6526,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.388066934837201</v>
+        <v>1.387274250006234</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.252777949515757</v>
@@ -6615,7 +6615,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.402706106499082</v>
+        <v>1.397162602754319</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.042532104980884</v>
@@ -6704,7 +6704,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.404479278290507</v>
+        <v>1.401942076922435</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.229495686040733</v>
@@ -6793,7 +6793,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.404792707852796</v>
+        <v>1.401454981016175</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.394619014990737</v>
@@ -6882,7 +6882,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.405622982291368</v>
+        <v>1.398021870026382</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.368432413940391</v>
@@ -6971,7 +6971,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.405514895381644</v>
+        <v>1.395081771208742</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.316364762252948</v>
@@ -7060,7 +7060,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.43262209107788</v>
+        <v>1.41808281885984</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.43751909186696</v>
@@ -7149,7 +7149,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.423964221921971</v>
+        <v>1.406136247087039</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.299777954911411</v>
@@ -7238,7 +7238,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.455886838936638</v>
+        <v>1.431123827702727</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.234965620833206</v>
@@ -7327,7 +7327,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.465199605305459</v>
+        <v>1.441588524557142</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.148667179259945</v>
@@ -7416,7 +7416,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.50762487469871</v>
+        <v>1.479884019621628</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.114493876007984</v>
@@ -7505,7 +7505,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.510919711104523</v>
+        <v>1.477840002903184</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.309744166483518</v>
@@ -7594,7 +7594,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.523815687307741</v>
+        <v>1.48324016406174</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.147457307461503</v>
@@ -7683,7 +7683,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.54165884998274</v>
+        <v>1.50105916414329</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.307875546436674</v>
@@ -7772,7 +7772,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.546981530539405</v>
+        <v>1.502196243031874</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.077277284703716</v>
@@ -7861,7 +7861,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.565643440484846</v>
+        <v>1.511465726911945</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.28041393767073</v>
@@ -8147,7 +8147,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.533339115557726</v>
+        <v>1.490872803495236</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.96927281434562</v>
@@ -8236,7 +8236,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.544563956139991</v>
+        <v>1.493639014998205</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.371764304050628</v>
@@ -8325,7 +8325,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.576299355735131</v>
+        <v>1.520562962345636</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.892130901320611</v>
@@ -8414,7 +8414,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.592505050952677</v>
+        <v>1.539862302288816</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.119461784522466</v>
@@ -8503,7 +8503,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.582438764624516</v>
+        <v>1.538247111569135</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.018765387298544</v>
@@ -8592,7 +8592,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.583688608921251</v>
+        <v>1.546216124669387</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.227158538476749</v>
@@ -8681,7 +8681,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.560072681699737</v>
+        <v>1.51909389095908</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.315460752121045</v>
@@ -8770,7 +8770,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.569657525526681</v>
+        <v>1.528408167336636</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.046639156189491</v>
@@ -8859,7 +8859,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.566938313451874</v>
+        <v>1.532767251472899</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.246703036892113</v>
@@ -8948,7 +8948,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.557980537704885</v>
+        <v>1.515572065844157</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.22797162981797</v>
@@ -9037,7 +9037,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.55333188691388</v>
+        <v>1.509457130919773</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.979638589736824</v>
@@ -9126,7 +9126,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.547785069506295</v>
+        <v>1.507870257283445</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.093569335482835</v>
@@ -9215,7 +9215,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.558884885088399</v>
+        <v>1.524996344316127</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.658581596813241</v>
@@ -9304,7 +9304,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.547856362284616</v>
+        <v>1.517137385334963</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.217054724652486</v>
@@ -9393,7 +9393,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.545254745640705</v>
+        <v>1.514479712802949</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.10322468431805</v>
@@ -9482,7 +9482,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.545732416122053</v>
+        <v>1.521541377223309</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.897779626599542</v>
@@ -9571,7 +9571,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.553592044044357</v>
+        <v>1.536640148408409</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.19046542154109</v>
@@ -9660,7 +9660,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.545167861493534</v>
+        <v>1.529196807108252</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.065559826602791</v>
@@ -9749,7 +9749,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.534944893280279</v>
+        <v>1.513365693559171</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.282368179961255</v>
@@ -9838,7 +9838,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.54182541875461</v>
+        <v>1.51594055966522</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.884973572125165</v>
@@ -9927,7 +9927,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.550943296842578</v>
+        <v>1.521063381435061</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.68081098916187</v>
@@ -10016,7 +10016,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.558187520247916</v>
+        <v>1.530424502182003</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.131565936713185</v>
@@ -10105,7 +10105,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.562753197962726</v>
+        <v>1.533392695621185</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.776890017280198</v>
@@ -10194,7 +10194,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.575840448885547</v>
+        <v>1.533932648791688</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.089413033470298</v>
@@ -10283,7 +10283,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.577230359141045</v>
+        <v>1.540585635707878</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.173454148891714</v>
@@ -10372,7 +10372,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.594072708463286</v>
+        <v>1.561321220374272</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.790402720589736</v>
@@ -10461,7 +10461,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.608405809251997</v>
+        <v>1.570871821541111</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.09087336068842</v>
@@ -10550,7 +10550,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.606025585013224</v>
+        <v>1.565186993649549</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.796322214009926</v>
@@ -10639,7 +10639,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.602801178117698</v>
+        <v>1.560219229587473</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.059849477938503</v>
@@ -10728,7 +10728,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.587983841620044</v>
+        <v>1.542781629235725</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.182450628988967</v>
@@ -10817,7 +10817,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.587449847491581</v>
+        <v>1.535261851114879</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.291453632590407</v>
@@ -10906,7 +10906,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.5818309556397</v>
+        <v>1.519404705700343</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.132252335725423</v>
@@ -10995,7 +10995,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.589902455182442</v>
+        <v>1.524927032784511</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.294102677981891</v>
@@ -11084,7 +11084,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.58823001991452</v>
+        <v>1.522840996272131</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.863436394337898</v>
@@ -11173,7 +11173,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.586568003715941</v>
+        <v>1.516572569504441</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.212969527094609</v>
@@ -11262,7 +11262,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.583398697201444</v>
+        <v>1.516345195181362</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.94744955809416</v>
@@ -11351,7 +11351,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.589895829264128</v>
+        <v>1.521327196998348</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.126930907903541</v>
@@ -11440,7 +11440,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.573082081417511</v>
+        <v>1.500698098307208</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.218322918843809</v>
@@ -11529,7 +11529,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.561807510133472</v>
+        <v>1.494856916569841</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.204578472102749</v>
@@ -11618,7 +11618,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.562955906370093</v>
+        <v>1.49513879043242</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.04777918985166</v>
@@ -11707,7 +11707,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.554436009610675</v>
+        <v>1.485734197218575</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.936369632599811</v>
@@ -11796,7 +11796,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.548504871787938</v>
+        <v>1.476997020306011</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.134660379608424</v>
@@ -12082,7 +12082,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.643358844600175</v>
+        <v>1.583102395559265</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.830941938098925</v>
@@ -12171,7 +12171,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.625433173385882</v>
+        <v>1.56600818431167</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.032768628027631</v>
@@ -12260,7 +12260,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.642048028345142</v>
+        <v>1.57897214411778</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.179239738726734</v>
@@ -12349,7 +12349,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.652265189622593</v>
+        <v>1.587493020486233</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.225158933486477</v>
@@ -12438,7 +12438,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.64223831296629</v>
+        <v>1.57855696499116</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.084883398692032</v>
@@ -12527,7 +12527,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.646469915745414</v>
+        <v>1.592685306900884</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.176936922961962</v>
@@ -12616,7 +12616,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.64395560430827</v>
+        <v>1.594259396951478</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.239235181026405</v>
@@ -12705,7 +12705,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.646505351553653</v>
+        <v>1.598405261228929</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.912693939845424</v>
@@ -12794,7 +12794,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.654101898322903</v>
+        <v>1.607832967233807</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.385390792620308</v>
@@ -12883,7 +12883,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.653501343076367</v>
+        <v>1.605957297767791</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.164102839039786</v>
@@ -12972,7 +12972,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.650761508225607</v>
+        <v>1.600029626807033</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.012257981678381</v>
@@ -13061,7 +13061,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.632214054965445</v>
+        <v>1.582768428163051</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.368931426314998</v>
@@ -13150,7 +13150,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.640596618528532</v>
+        <v>1.599701490531429</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.130409461465662</v>
@@ -13239,7 +13239,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.626193830802876</v>
+        <v>1.591810146988777</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.313050778721879</v>
@@ -13328,7 +13328,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.631262816144598</v>
+        <v>1.596789686843205</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.162853662908151</v>
@@ -13417,7 +13417,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.625556770270802</v>
+        <v>1.597588496287374</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.073906761668066</v>
@@ -13506,7 +13506,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.649972526592681</v>
+        <v>1.617097691060731</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.604366269808056</v>
@@ -13595,7 +13595,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.636084263811005</v>
+        <v>1.60218757317252</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.312409565643109</v>
@@ -13684,7 +13684,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.633727770178454</v>
+        <v>1.596070842110409</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.448519011517321</v>
@@ -13773,7 +13773,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.643552626599972</v>
+        <v>1.607832207378958</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.03600741207991</v>
@@ -13862,7 +13862,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.650515148665772</v>
+        <v>1.609792047977901</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.577988284155542</v>
@@ -13951,7 +13951,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.642478498468936</v>
+        <v>1.605138827742374</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.256793068279883</v>
@@ -14040,7 +14040,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.637739022672356</v>
+        <v>1.608863091625199</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.538988851612458</v>
@@ -14129,7 +14129,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.636195616869945</v>
+        <v>1.604179715720438</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.536031833642937</v>
@@ -14218,7 +14218,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.624601248329211</v>
+        <v>1.599437945900428</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.474401844995953</v>
@@ -14307,7 +14307,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.630535135930494</v>
+        <v>1.607863874921884</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.292049942979341</v>
@@ -14396,7 +14396,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.623801641784006</v>
+        <v>1.602911711699255</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.101168664246222</v>
@@ -14485,7 +14485,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.624841976409384</v>
+        <v>1.59910263267707</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.696377128057704</v>
@@ -14574,7 +14574,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.625249511406512</v>
+        <v>1.600138309806409</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.176349904855886</v>
@@ -14663,7 +14663,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.622699153121199</v>
+        <v>1.593942188600807</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.041479237219507</v>
@@ -14752,7 +14752,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.613807856217662</v>
+        <v>1.581602941873697</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.049151200134833</v>
@@ -14841,7 +14841,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.604161472973326</v>
+        <v>1.569247249785599</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.091739676070624</v>
@@ -14930,7 +14930,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.614674870224347</v>
+        <v>1.577315717220127</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.070247439835369</v>
@@ -15019,7 +15019,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.602797871001599</v>
+        <v>1.564128929427518</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.906138957581101</v>
@@ -15108,7 +15108,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.610477557537429</v>
+        <v>1.566039782420371</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.206581161466531</v>
@@ -15197,7 +15197,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.605221704976384</v>
+        <v>1.557065379225877</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.873552163484645</v>
@@ -15286,7 +15286,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.618221034244293</v>
+        <v>1.561236953042215</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.736122075071786</v>
@@ -15375,7 +15375,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.61991608219651</v>
+        <v>1.559149520103469</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.773741435552131</v>
@@ -15464,7 +15464,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.621334417851913</v>
+        <v>1.557228366412208</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.637680748989915</v>
@@ -15553,7 +15553,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.630029471319986</v>
+        <v>1.564138447197858</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.0233335427889</v>
@@ -15642,7 +15642,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.634487817921748</v>
+        <v>1.561719430462385</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.801844787832195</v>
@@ -15731,7 +15731,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.649861054314631</v>
+        <v>1.568938170928389</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.126834673393959</v>
@@ -16017,7 +16017,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.77430616578273</v>
+        <v>1.713355960875524</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.107680556422352</v>
@@ -16106,7 +16106,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.762447988719933</v>
+        <v>1.700755997071655</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.861184376200129</v>
@@ -16195,7 +16195,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.762026843695267</v>
+        <v>1.703843372159804</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.86917606710619</v>
@@ -16284,7 +16284,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.764756614473328</v>
+        <v>1.703665887378341</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.959152112153263</v>
@@ -16373,7 +16373,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.758247613020508</v>
+        <v>1.696179100489364</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.869106023592713</v>
@@ -16462,7 +16462,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.765239394222236</v>
+        <v>1.698552023155531</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.479346565565757</v>
@@ -16551,7 +16551,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.772145510427117</v>
+        <v>1.704421970858831</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.828641754877269</v>
@@ -16640,7 +16640,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.764535741227229</v>
+        <v>1.696595181411396</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>4.148568844433484</v>
@@ -16729,7 +16729,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.766514515574143</v>
+        <v>1.691621099238384</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.659374634346415</v>
@@ -16818,7 +16818,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.760155696292037</v>
+        <v>1.689289850532557</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.996405249488882</v>
@@ -16907,7 +16907,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.749598075880921</v>
+        <v>1.681864412008692</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.936284942605182</v>
@@ -16996,7 +16996,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.745397947729863</v>
+        <v>1.681133563268478</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.884030657402615</v>
@@ -17085,7 +17085,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.749685709129981</v>
+        <v>1.683362452247675</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.193362305322636</v>
@@ -17174,7 +17174,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.746997689363881</v>
+        <v>1.683497716275003</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.039996421178515</v>
@@ -17263,7 +17263,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.752846746338059</v>
+        <v>1.692078958925096</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.117677354089882</v>
@@ -17352,7 +17352,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.751792582665229</v>
+        <v>1.689702773173868</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.130592024330759</v>
@@ -17441,7 +17441,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.765100299925605</v>
+        <v>1.705718393007227</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.885690176904881</v>
@@ -17530,7 +17530,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.754293409155599</v>
+        <v>1.693991383416537</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.890899295829878</v>
@@ -17619,7 +17619,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.753287240575136</v>
+        <v>1.684116298637238</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.236866676587081</v>
@@ -17708,7 +17708,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.755782198710882</v>
+        <v>1.685270588269829</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.839316660950023</v>
@@ -17797,7 +17797,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.750089646690136</v>
+        <v>1.68422322024982</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.828184767863679</v>
@@ -17886,7 +17886,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.754699124025304</v>
+        <v>1.689069101366308</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.595805882268583</v>
@@ -17975,7 +17975,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.753176111932844</v>
+        <v>1.688167034496465</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.875468918588407</v>
@@ -18064,7 +18064,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.751160032465584</v>
+        <v>1.690550516926842</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.156950001735923</v>
@@ -18153,7 +18153,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.748105794662268</v>
+        <v>1.684679857303695</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.251616309976946</v>
@@ -18242,7 +18242,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.754028415468819</v>
+        <v>1.688614950105439</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.983196864065792</v>
@@ -18331,7 +18331,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.749480142312877</v>
+        <v>1.684703126098291</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.256435429880922</v>
@@ -18420,7 +18420,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.760617421384345</v>
+        <v>1.690462979405539</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.407297129071294</v>
@@ -18509,7 +18509,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.766701004382595</v>
+        <v>1.694147574487984</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.204812295092447</v>
@@ -18598,7 +18598,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.764831991522575</v>
+        <v>1.693948426033348</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.11172217489836</v>
@@ -18687,7 +18687,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.775552410518059</v>
+        <v>1.690155209497065</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.49030323883381</v>
@@ -18776,7 +18776,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.774328909526325</v>
+        <v>1.689760134093711</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.745291204774937</v>
@@ -18865,7 +18865,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.777672153156404</v>
+        <v>1.686133728142688</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.806775035638083</v>
@@ -18954,7 +18954,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.777420957104526</v>
+        <v>1.694344868558812</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.681889265794542</v>
@@ -19043,7 +19043,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.783905047701603</v>
+        <v>1.690140784187442</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.245068898433298</v>
@@ -19132,7 +19132,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.784015277450704</v>
+        <v>1.695626300177368</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.705201029177842</v>
@@ -19221,7 +19221,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.785518059124938</v>
+        <v>1.69701866133381</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.758491133140318</v>
@@ -19310,7 +19310,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.795684108629297</v>
+        <v>1.704424715384872</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.028177767463427</v>
@@ -19399,7 +19399,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.789385871938664</v>
+        <v>1.694748278206526</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.636294801018352</v>
@@ -19488,7 +19488,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.797506278372648</v>
+        <v>1.699031289704041</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.840010090729458</v>
@@ -19577,7 +19577,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.794622149161007</v>
+        <v>1.699802367496358</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.436145928063817</v>
@@ -19666,7 +19666,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.800626727953596</v>
+        <v>1.701527565853854</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.975481415425623</v>
@@ -19952,7 +19952,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.461597952119948</v>
+        <v>1.441310547401443</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.545146212838786</v>
@@ -20041,7 +20041,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.446401619273229</v>
+        <v>1.424359247285244</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.52039494833753</v>
@@ -20130,7 +20130,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.455051907009247</v>
+        <v>1.434450305866445</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.583158939636491</v>
@@ -20219,7 +20219,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.463926667504465</v>
+        <v>1.446927809069781</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.49595772261274</v>
@@ -20308,7 +20308,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.461990623422455</v>
+        <v>1.443436785900882</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.489018231886774</v>
@@ -20397,7 +20397,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.471355945798571</v>
+        <v>1.46335916823251</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.602448176633114</v>
@@ -20486,7 +20486,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.473513145954032</v>
+        <v>1.46778229334657</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.62721663804022</v>
@@ -20575,7 +20575,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.48290324783188</v>
+        <v>1.481613001449444</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.743739439841794</v>
@@ -20664,7 +20664,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.494807707493186</v>
+        <v>1.500340647883006</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.436009473540292</v>
@@ -20753,7 +20753,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.501766646280651</v>
+        <v>1.507096489482986</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.725479249762618</v>
@@ -20842,7 +20842,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.486716837464418</v>
+        <v>1.493794400965587</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.720013651809089</v>
@@ -20931,7 +20931,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.490945533799247</v>
+        <v>1.499543733915685</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.790288674884654</v>
@@ -21020,7 +21020,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.495722305425538</v>
+        <v>1.502939493986351</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.238055763448213</v>
@@ -21109,7 +21109,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.503004356292136</v>
+        <v>1.512140614137666</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.690917947695967</v>
@@ -21198,7 +21198,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.512060543144655</v>
+        <v>1.519117402618788</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.660458403323355</v>
@@ -21287,7 +21287,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.509483934544331</v>
+        <v>1.524384512048845</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.660689563068639</v>
@@ -21376,7 +21376,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.536533955377089</v>
+        <v>1.55221670215146</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.718465461261931</v>
@@ -21465,7 +21465,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.546226134514322</v>
+        <v>1.561849189585761</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.77590353433272</v>
@@ -21554,7 +21554,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.555853660655329</v>
+        <v>1.57163399247894</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.876096470864763</v>
@@ -21643,7 +21643,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.557045355204465</v>
+        <v>1.579143359789663</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.926731587294638</v>
@@ -21732,7 +21732,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.561860942929713</v>
+        <v>1.584403115687371</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.52745976557978</v>
@@ -21821,7 +21821,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.555799859120188</v>
+        <v>1.575780323265663</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.84774430201945</v>
@@ -21910,7 +21910,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.548660451505857</v>
+        <v>1.566706042447367</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.886755024232351</v>
@@ -21999,7 +21999,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.530785024651694</v>
+        <v>1.545595946951561</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.8379840325121</v>
@@ -22088,7 +22088,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.539927941369714</v>
+        <v>1.557087591049743</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.585445301643911</v>
@@ -22177,7 +22177,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.552069859879506</v>
+        <v>1.56499785282508</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.75148415716267</v>
@@ -22266,7 +22266,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.546948997477046</v>
+        <v>1.557462555086625</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.861442382601668</v>
@@ -22355,7 +22355,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.56360655247335</v>
+        <v>1.566699277159154</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.921751946168842</v>
@@ -22444,7 +22444,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.55391735996286</v>
+        <v>1.559310488089801</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.867521422670696</v>
@@ -22533,7 +22533,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.531313509129718</v>
+        <v>1.53863149906068</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.698180905649678</v>
@@ -22622,7 +22622,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.518565197526259</v>
+        <v>1.521775424961346</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.824418957836586</v>
@@ -22711,7 +22711,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.505305625702352</v>
+        <v>1.502763078145478</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.029331647720361</v>
@@ -22800,7 +22800,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.49327122553662</v>
+        <v>1.485970385288425</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.014760152555585</v>
@@ -22889,7 +22889,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.469832887759018</v>
+        <v>1.45249188686213</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.676833096299842</v>
@@ -22978,7 +22978,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.469945337821207</v>
+        <v>1.443772348923075</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.588316844724623</v>
@@ -23067,7 +23067,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.454470532376311</v>
+        <v>1.426959463460336</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.714144202280369</v>
@@ -23156,7 +23156,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.457450946608183</v>
+        <v>1.430513940526615</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.680943717260423</v>
@@ -23245,7 +23245,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.450898017353127</v>
+        <v>1.423880853758636</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.693381318728121</v>
@@ -23334,7 +23334,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.456749900267563</v>
+        <v>1.428563378017171</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.872248715443521</v>
@@ -23423,7 +23423,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.451367506819345</v>
+        <v>1.421247024086532</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.821959865662844</v>
@@ -23512,7 +23512,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.458317093608997</v>
+        <v>1.423923977904709</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.498402163043365</v>
@@ -23601,7 +23601,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.453958777250753</v>
+        <v>1.42425028919658</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.893896045156316</v>
@@ -23887,7 +23887,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.814937536627673</v>
+        <v>1.749518747197508</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.888241353265373</v>
@@ -23976,7 +23976,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.805323007955592</v>
+        <v>1.740981280657556</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.720729240092374</v>
@@ -24065,7 +24065,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.807869909085994</v>
+        <v>1.746059863925112</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.745370429766602</v>
@@ -24154,7 +24154,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.820495640425548</v>
+        <v>1.747746927764345</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.220099651985799</v>
@@ -24243,7 +24243,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.779432659554063</v>
+        <v>1.713658088211877</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.930163717480881</v>
@@ -24332,7 +24332,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.776783606109885</v>
+        <v>1.714855702076483</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.253358248530915</v>
@@ -24421,7 +24421,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.778496142697647</v>
+        <v>1.724227190044949</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.363227667858739</v>
@@ -24510,7 +24510,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.776734294698098</v>
+        <v>1.726124743519059</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.27607851274097</v>
@@ -24599,7 +24599,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.781256286126265</v>
+        <v>1.730988817530712</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.192884149538721</v>
@@ -24688,7 +24688,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.780270820848203</v>
+        <v>1.722344464122376</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.173957105642277</v>
@@ -24777,7 +24777,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.758066273780994</v>
+        <v>1.707174621141318</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.905019103512728</v>
@@ -24866,7 +24866,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.753208118143066</v>
+        <v>1.695311494894941</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.30540604935349</v>
@@ -24955,7 +24955,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.75475580105369</v>
+        <v>1.6933438155249</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.697952408019483</v>
@@ -25044,7 +25044,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.741408058447763</v>
+        <v>1.686266052137731</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.04181520749855</v>
@@ -25133,7 +25133,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.742470038870659</v>
+        <v>1.686992098043203</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.24303230913669</v>
@@ -25222,7 +25222,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.720359684216302</v>
+        <v>1.669952617806994</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.950836873140569</v>
@@ -25311,7 +25311,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.734189535816084</v>
+        <v>1.678290294214711</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.344801236647486</v>
@@ -25400,7 +25400,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.717813478560056</v>
+        <v>1.667076455757556</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.981673621256329</v>
@@ -25489,7 +25489,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.72191087535522</v>
+        <v>1.672126710467563</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.95941681681552</v>
@@ -25578,7 +25578,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.737188521941293</v>
+        <v>1.684883925396041</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.968825532154082</v>
@@ -25667,7 +25667,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.736656241561104</v>
+        <v>1.690599799469446</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.346316486318819</v>
@@ -25756,7 +25756,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.731551195796739</v>
+        <v>1.683690477959163</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.121527416429375</v>
@@ -25845,7 +25845,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.72850226518848</v>
+        <v>1.682517470060447</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.011544071044874</v>
@@ -25934,7 +25934,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.727037973518905</v>
+        <v>1.683553058017405</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.140012771818449</v>
@@ -26023,7 +26023,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.707865267603577</v>
+        <v>1.677026822764319</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.079852152916976</v>
@@ -26112,7 +26112,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.719692633656166</v>
+        <v>1.684608869244699</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.087666736054884</v>
@@ -26201,7 +26201,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.709703545585495</v>
+        <v>1.680219332835477</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.097883861782034</v>
@@ -26290,7 +26290,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.717170687018608</v>
+        <v>1.682420075072149</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.662219533159773</v>
@@ -26379,7 +26379,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.723104944023717</v>
+        <v>1.685255381562938</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.832265638236835</v>
@@ -26468,7 +26468,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.717731028148913</v>
+        <v>1.683174676579065</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.150455607914409</v>
@@ -26557,7 +26557,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.723138233036271</v>
+        <v>1.688245656533879</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.160772210948458</v>
@@ -26646,7 +26646,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.714500788377907</v>
+        <v>1.68194756255733</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.196965535142624</v>
@@ -26735,7 +26735,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.735429555987537</v>
+        <v>1.69429805335796</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.014570508564399</v>
@@ -26824,7 +26824,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.735490271561844</v>
+        <v>1.698562670202732</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.738353360985863</v>
@@ -26913,7 +26913,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.762473132088168</v>
+        <v>1.716122128034079</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.012610262976491</v>
@@ -27002,7 +27002,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.765352746321057</v>
+        <v>1.714031474833383</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.833798416445177</v>
@@ -27091,7 +27091,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.793368924622573</v>
+        <v>1.739234278374554</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.823704970178339</v>
@@ -27180,7 +27180,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.797656371453642</v>
+        <v>1.745142650516679</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.904983915387334</v>
@@ -27269,7 +27269,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.805347053998014</v>
+        <v>1.749970102651448</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.764401837270317</v>
@@ -27358,7 +27358,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.817998290188257</v>
+        <v>1.752943748153448</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.118309042230344</v>
@@ -27447,7 +27447,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.819270254724925</v>
+        <v>1.758834891620616</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.627072966713377</v>
@@ -27536,7 +27536,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.831060175274122</v>
+        <v>1.767248321758897</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.92932612387344</v>
